--- a/マニュアル/会社評価システムマニュアルv2.xlsx
+++ b/マニュアル/会社評価システムマニュアルv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\マニュアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4374B126-4A83-4644-A0E1-D350F7DE9F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6820026B-06DA-424F-93B7-820BFFDFFC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="996" activeTab="2" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
@@ -635,70 +635,6 @@
         <a:xfrm>
           <a:off x="269874" y="968375"/>
           <a:ext cx="11797393" cy="5588000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>264060</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68790F96-06EC-469A-A2CD-E44B03283B77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292099" y="10979150"/>
-          <a:ext cx="12125861" cy="5588000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,15 +1074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
+      <xdr:colOff>206374</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1161,8 +1097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238124" y="16916401"/>
-          <a:ext cx="12138025" cy="650874"/>
+          <a:off x="222249" y="16049626"/>
+          <a:ext cx="11858625" cy="650874"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1205,7 +1141,7 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>①のボタンを押下すると</a:t>
+            <a:t>①のボタンを押下して</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
@@ -1213,7 +1149,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>時間給</a:t>
+            <a:t>管理メニュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
@@ -1221,7 +1157,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>列が非表示になる</a:t>
+            <a:t>を表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -1512,7 +1448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1548,6 +1484,134 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83F230E-A7C7-4DE6-B161-A0380A56D438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="12982575"/>
+          <a:ext cx="428625" cy="400049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="492443" cy="607346"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A976DD2-CC27-4F6E-AD40-19065AD08A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400799" y="12652375"/>
+          <a:ext cx="492443" cy="607346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2755,8 +2819,8 @@
   </sheetPr>
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA63" sqref="BA63:BB63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX64" sqref="AX64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
